--- a/test.xlsx
+++ b/test.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="test|测试表格" sheetId="1" r:id="rId4"/>
+    <sheet name="test2|测试表格2" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -78,6 +79,21 @@
   </si>
   <si>
     <t>{"2":2}</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>#group</t>
+  </si>
+  <si>
+    <t>中文2</t>
+  </si>
+  <si>
+    <t>[5,6]</t>
+  </si>
+  <si>
+    <t>[6,7]</t>
   </si>
 </sst>
 </file>
@@ -87,7 +103,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -99,13 +115,18 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,8 +145,20 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -238,38 +271,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -278,19 +392,31 @@
     <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -314,6 +440,10 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ff3f3f3f"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -330,10 +460,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -510,11 +640,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -523,27 +656,27 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
@@ -800,10 +933,10 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1094,7 +1227,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1377,9 +1510,7 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1658,4 +1789,211 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="C2" xSplit="2" ySplit="1" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16.3516" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="16" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="16" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="16" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="16" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="16" customWidth="1"/>
+    <col min="7" max="256" width="16.3516" style="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.7" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="14.7" customHeight="1">
+      <c r="A2" t="s" s="17">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="18">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s" s="19">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s" s="19">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="14.7" customHeight="1">
+      <c r="A3" t="s" s="20">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s" s="21">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="22">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s" s="22">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s" s="22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="17" customHeight="1">
+      <c r="A4" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s" s="21">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s" s="22">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s" s="22">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s" s="22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="14.7" customHeight="1">
+      <c r="A5" s="23"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" ht="17" customHeight="1">
+      <c r="A6" s="26">
+        <v>1</v>
+      </c>
+      <c r="B6" s="14">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s" s="21">
+        <v>16</v>
+      </c>
+      <c r="D6" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="E6" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s" s="22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" ht="14.7" customHeight="1">
+      <c r="A7" s="26">
+        <v>1</v>
+      </c>
+      <c r="B7" s="14">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s" s="21">
+        <v>19</v>
+      </c>
+      <c r="D7" s="27">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s" s="22">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s" s="22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" ht="17" customHeight="1">
+      <c r="A8" s="26">
+        <v>2</v>
+      </c>
+      <c r="B8" s="14">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s" s="21">
+        <v>24</v>
+      </c>
+      <c r="D8" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="E8" t="s" s="22">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s" s="22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="26">
+        <v>2</v>
+      </c>
+      <c r="B9" s="14">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s" s="21">
+        <v>19</v>
+      </c>
+      <c r="D9" s="27">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s" s="22">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s" s="22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" ht="14.35" customHeight="1">
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>